--- a/flow/stat/stat_keys.xlsx
+++ b/flow/stat/stat_keys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_user_pv_20171205_1_10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,90 +34,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_guest_pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游客pv统计, yyyymmdd =&gt; pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_user_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册日统计, yyyymmdd =&gt; 注册数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_post_comment_1_10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帖子评论统计, post_id =&gt; 评论数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_post_like_1_10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帖子点赞统计, post_id =&gt; 点赞数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_post_view_1_10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帖子查看统计, post_id =&gt; 查看数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_comment_like_1_10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评论点赞统计, comment_id =&gt; 点赞数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_comment_cmnt_1_10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评论回复统计, comment_id =&gt; 回复数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_poll_1_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投票统计, PostId_OptId =&gt; 投票数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_user_post_20171205_1_10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户帖子数日统计, user_id =&gt; 帖子数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_user_comment_20171205_1_10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户评论数日统计, user_id =&gt; 评论数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_user_like_20171205_1_10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户点赞数日统计, user_id =&gt; 点赞数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +83,55 @@
   </si>
   <si>
     <t>Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按平台pv日统计, platform =&gt; pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT-USER-PV-20171205-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-PLATFORM-PV-20171205</t>
+  </si>
+  <si>
+    <t>STAT-GUEST-PV</t>
+  </si>
+  <si>
+    <t>STAT-POST-COMMENT-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-POST-LIKE-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-POST-VIEW-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-COMMENT-LIKE-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-COMMENT-CMNT-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-POLL-1-1000</t>
+  </si>
+  <si>
+    <t>STAT-USER-POST-20171205-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-USER-COMMENT-20171205-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-USER-LIKE-20171205-1-10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT-USER-SIGNUP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -515,145 +516,156 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21.95" customHeight="1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.95" customHeight="1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.95" customHeight="1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.95" customHeight="1">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.95" customHeight="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.95" customHeight="1">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.95" customHeight="1">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.95" customHeight="1">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.95" customHeight="1">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.95" customHeight="1">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.95" customHeight="1">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.95" customHeight="1">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/flow/stat/stat_keys.xlsx
+++ b/flow/stat/stat_keys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,104 +34,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注册日统计, yyyymmdd =&gt; 注册数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子评论统计, post_id =&gt; 评论数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子点赞统计, post_id =&gt; 点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子查看统计, post_id =&gt; 查看数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论点赞统计, comment_id =&gt; 点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论回复统计, comment_id =&gt; 回复数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票统计, PostId_OptId =&gt; 投票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户帖子数日统计, user_id =&gt; 帖子数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户评论数日统计, user_id =&gt; 评论数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点赞数日统计, user_id =&gt; 点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户pv日统计, user_id =&gt; pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按平台pv日统计, platform =&gt; pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT-POST-COMMENT-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-POST-LIKE-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-POST-VIEW-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-COMMENT-LIKE-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-COMMENT-CMNT-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-POLL-1-1000</t>
+  </si>
+  <si>
+    <t>STAT-USER-POST-20171205-1-10000</t>
+  </si>
+  <si>
+    <t>STAT-USER-SIGNUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT-USER-PV-20171205-1-10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT-PLATFORM-PV-20171205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT-GUEST-PV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT-FILE-UPLOAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>游客pv统计, yyyymmdd =&gt; pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册日统计, yyyymmdd =&gt; 注册数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帖子评论统计, post_id =&gt; 评论数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帖子点赞统计, post_id =&gt; 点赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帖子查看统计, post_id =&gt; 查看数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论点赞统计, comment_id =&gt; 点赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论回复统计, comment_id =&gt; 回复数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投票统计, PostId_OptId =&gt; 投票数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户帖子数日统计, user_id =&gt; 帖子数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户评论数日统计, user_id =&gt; 评论数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户点赞数日统计, user_id =&gt; 点赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户pv日统计, user_id =&gt; pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按平台pv日统计, platform =&gt; pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT-USER-PV-20171205-1-10000</t>
-  </si>
-  <si>
-    <t>STAT-PLATFORM-PV-20171205</t>
-  </si>
-  <si>
-    <t>STAT-GUEST-PV</t>
-  </si>
-  <si>
-    <t>STAT-POST-COMMENT-1-10000</t>
-  </si>
-  <si>
-    <t>STAT-POST-LIKE-1-10000</t>
-  </si>
-  <si>
-    <t>STAT-POST-VIEW-1-10000</t>
-  </si>
-  <si>
-    <t>STAT-COMMENT-LIKE-1-10000</t>
-  </si>
-  <si>
-    <t>STAT-COMMENT-CMNT-1-10000</t>
-  </si>
-  <si>
-    <t>STAT-POLL-1-1000</t>
-  </si>
-  <si>
-    <t>STAT-USER-POST-20171205-1-10000</t>
+    <t>文件上传统计, yyyymmdd =&gt; pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT-USER-LIKE-20171205-1-10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>STAT-USER-COMMENT-20171205-1-10000</t>
-  </si>
-  <si>
-    <t>STAT-USER-LIKE-20171205-1-10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT-USER-SIGNUP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -522,150 +538,161 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21.95" customHeight="1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.95" customHeight="1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.95" customHeight="1">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.95" customHeight="1">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.95" customHeight="1">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.95" customHeight="1">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.95" customHeight="1">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.95" customHeight="1">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.95" customHeight="1">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.95" customHeight="1">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.95" customHeight="1">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.95" customHeight="1">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.95" customHeight="1">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/flow/stat/stat_keys.xlsx
+++ b/flow/stat/stat_keys.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
